--- a/list_6_r.xlsx
+++ b/list_6_r.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,6 +1243,14 @@
         <v>489487</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>481096</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1254,7 +1262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2066,6 +2074,14 @@
         <v>100734</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>100656</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2077,7 +2093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2889,6 +2905,14 @@
         <v>16934</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>17055</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_6_r.xlsx
+++ b/list_6_r.xlsx
@@ -453,802 +453,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>249392</v>
+        <v>270568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>251617</v>
+        <v>260302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>270568</v>
+        <v>263390</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>260302</v>
+        <v>264311</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>263390</v>
+        <v>330892</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>264311</v>
+        <v>312761</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>330892</v>
+        <v>302707</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>312761</v>
+        <v>310927</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>302707</v>
+        <v>347838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>310927</v>
+        <v>375040</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>347838</v>
+        <v>381103</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>375040</v>
+        <v>400943</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>381103</v>
+        <v>398983</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>400943</v>
+        <v>401677</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>398983</v>
+        <v>404349</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>401677</v>
+        <v>389583</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>404349</v>
+        <v>396833</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>389583</v>
+        <v>381349</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>396833</v>
+        <v>398936</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>381349</v>
+        <v>419336</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>398936</v>
+        <v>418941</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>419336</v>
+        <v>417107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>418941</v>
+        <v>403754</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>417107</v>
+        <v>381759</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>403754</v>
+        <v>361738</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>381759</v>
+        <v>386870</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>361738</v>
+        <v>386048</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>386870</v>
+        <v>365882</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>386048</v>
+        <v>350366</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>365882</v>
+        <v>334795</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>350366</v>
+        <v>327891</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>334795</v>
+        <v>325275</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>327891</v>
+        <v>353066</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>325275</v>
+        <v>347138</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>353066</v>
+        <v>348574</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>347138</v>
+        <v>348773</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>348574</v>
+        <v>363789</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>348773</v>
+        <v>354830</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>363789</v>
+        <v>346789</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>354830</v>
+        <v>366678</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>346789</v>
+        <v>504637</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>366678</v>
+        <v>584812</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>504637</v>
+        <v>592303</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>584812</v>
+        <v>570386</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>592303</v>
+        <v>573180</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>570386</v>
+        <v>567309</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>573180</v>
+        <v>542737</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>567309</v>
+        <v>499771</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>542737</v>
+        <v>494089</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>499771</v>
+        <v>473486</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>494089</v>
+        <v>486108</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>473486</v>
+        <v>494339</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>486108</v>
+        <v>493558</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>494339</v>
+        <v>441081</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>493558</v>
+        <v>459960</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>441081</v>
+        <v>459139</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>459960</v>
+        <v>505205</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>459139</v>
+        <v>470573</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>505205</v>
+        <v>474035</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>470573</v>
+        <v>467136</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>474035</v>
+        <v>464962</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>467136</v>
+        <v>451945</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>464962</v>
+        <v>437240</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>451945</v>
+        <v>437534</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>437240</v>
+        <v>441248</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>437534</v>
+        <v>440184</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>441248</v>
+        <v>446647</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>440184</v>
+        <v>443074</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>446647</v>
+        <v>440554</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>443074</v>
+        <v>445202</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>440554</v>
+        <v>444275</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>445202</v>
+        <v>460317</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>444275</v>
+        <v>452364</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>460317</v>
+        <v>450438</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>452364</v>
+        <v>448829</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>450438</v>
+        <v>457974</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>448829</v>
+        <v>457165</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>457974</v>
+        <v>458872</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>457165</v>
+        <v>452176</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>458872</v>
+        <v>454344</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>452176</v>
+        <v>441709</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>454344</v>
+        <v>436549</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>441709</v>
+        <v>453645</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>436549</v>
+        <v>455331</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>453645</v>
+        <v>465187</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>455331</v>
+        <v>464665</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>465187</v>
+        <v>461548</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>464665</v>
+        <v>453284</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>461548</v>
+        <v>483036</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>453284</v>
+        <v>496144</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>483036</v>
+        <v>494067</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>496144</v>
+        <v>487725</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>494067</v>
+        <v>495154</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>487725</v>
+        <v>463995</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>495154</v>
+        <v>463193</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>463995</v>
+        <v>486283</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>463193</v>
+        <v>489487</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>486283</v>
+        <v>481096</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>489487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>481096</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1284,802 +1284,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>42743</v>
+        <v>45163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>42986</v>
+        <v>50121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>45163</v>
+        <v>51178</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>50121</v>
+        <v>50758</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>51178</v>
+        <v>50728</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>50758</v>
+        <v>66972</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>50728</v>
+        <v>74318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>66972</v>
+        <v>73400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>74318</v>
+        <v>74900</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>73400</v>
+        <v>73642</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>74900</v>
+        <v>76148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>73642</v>
+        <v>77403</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>76148</v>
+        <v>74738</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>77403</v>
+        <v>80854</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>74738</v>
+        <v>88098</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>80854</v>
+        <v>81202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>88098</v>
+        <v>89727</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>81202</v>
+        <v>89885</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>89727</v>
+        <v>94437</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>89885</v>
+        <v>92555</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>94437</v>
+        <v>85755</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>92555</v>
+        <v>82331</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>85755</v>
+        <v>83946</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>82331</v>
+        <v>84622</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>83946</v>
+        <v>83367</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>84622</v>
+        <v>85925</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>83367</v>
+        <v>87150</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>85925</v>
+        <v>86477</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>87150</v>
+        <v>87358</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>86477</v>
+        <v>83583</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>87358</v>
+        <v>83135</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>83583</v>
+        <v>84143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>83135</v>
+        <v>82606</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>84143</v>
+        <v>82577</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>82606</v>
+        <v>80494</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>82577</v>
+        <v>78220</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>80494</v>
+        <v>79905</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>78220</v>
+        <v>77596</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>79905</v>
+        <v>79301</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>77596</v>
+        <v>79567</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>79301</v>
+        <v>88695</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>79567</v>
+        <v>93687</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>88695</v>
+        <v>92622</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>93687</v>
+        <v>97573</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>92622</v>
+        <v>93796</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>97573</v>
+        <v>94529</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>93796</v>
+        <v>94924</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>94529</v>
+        <v>98379</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>94924</v>
+        <v>92871</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>98379</v>
+        <v>85037</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>92871</v>
+        <v>83074</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>85037</v>
+        <v>83453</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>83074</v>
+        <v>81145</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>83453</v>
+        <v>84781</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>81145</v>
+        <v>100214</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>84781</v>
+        <v>101994</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>100214</v>
+        <v>105252</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>101994</v>
+        <v>108411</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>105252</v>
+        <v>110971</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>108411</v>
+        <v>112126</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>110971</v>
+        <v>106807</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>112126</v>
+        <v>101680</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>106807</v>
+        <v>100562</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>101680</v>
+        <v>100727</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>100562</v>
+        <v>101869</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>100727</v>
+        <v>74368</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>101869</v>
+        <v>87137</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>74368</v>
+        <v>88504</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>87137</v>
+        <v>89444</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>88504</v>
+        <v>89001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>89444</v>
+        <v>90164</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>89001</v>
+        <v>87539</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>90164</v>
+        <v>84466</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>87539</v>
+        <v>81869</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>84466</v>
+        <v>77704</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>81869</v>
+        <v>76765</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>77704</v>
+        <v>80004</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>76765</v>
+        <v>87309</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>80004</v>
+        <v>81994</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>87309</v>
+        <v>84008</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>81994</v>
+        <v>86721</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>84008</v>
+        <v>87437</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>86721</v>
+        <v>86032</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>87437</v>
+        <v>89026</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>86032</v>
+        <v>92204</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>89026</v>
+        <v>86808</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>92204</v>
+        <v>84432</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>86808</v>
+        <v>84455</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>84432</v>
+        <v>87537</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>84455</v>
+        <v>93121</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>87537</v>
+        <v>88533</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>93121</v>
+        <v>94484</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>88533</v>
+        <v>95264</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>94484</v>
+        <v>92807</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>95264</v>
+        <v>94157</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>92807</v>
+        <v>95524</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>94157</v>
+        <v>100734</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>95524</v>
+        <v>100656</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>100734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>100656</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2115,802 +2115,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>8373</v>
+        <v>8637</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>8637</v>
+        <v>8883</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>8637</v>
+        <v>9053</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>8883</v>
+        <v>8958</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>9053</v>
+        <v>9034</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>8958</v>
+        <v>10560</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>9034</v>
+        <v>11588</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>10560</v>
+        <v>11713</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>11588</v>
+        <v>11526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>11713</v>
+        <v>10781</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>11526</v>
+        <v>13260</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>10781</v>
+        <v>12972</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>13260</v>
+        <v>12489</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>12972</v>
+        <v>13255</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>12489</v>
+        <v>15763</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>13255</v>
+        <v>14418</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>15763</v>
+        <v>14310</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>14418</v>
+        <v>14337</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>14310</v>
+        <v>14792</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>14337</v>
+        <v>14175</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>14792</v>
+        <v>13815</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>14175</v>
+        <v>13465</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>13815</v>
+        <v>13391</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>13465</v>
+        <v>13922</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>13391</v>
+        <v>14061</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>13922</v>
+        <v>14196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>14061</v>
+        <v>14007</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>14196</v>
+        <v>13943</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>14007</v>
+        <v>13894</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>13943</v>
+        <v>13907</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>13894</v>
+        <v>13825</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>13907</v>
+        <v>13996</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>13825</v>
+        <v>14051</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>13996</v>
+        <v>13857</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>14051</v>
+        <v>13913</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>13857</v>
+        <v>13583</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>13913</v>
+        <v>13472</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>13583</v>
+        <v>12764</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>13472</v>
+        <v>12958</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>12764</v>
+        <v>13222</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>12958</v>
+        <v>13522</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>13222</v>
+        <v>13549</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>13522</v>
+        <v>13443</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>13549</v>
+        <v>13861</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>13443</v>
+        <v>13484</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>13861</v>
+        <v>13810</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>13484</v>
+        <v>14946</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>13810</v>
+        <v>14761</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>14946</v>
+        <v>15074</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>14761</v>
+        <v>14672</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>15074</v>
+        <v>14985</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>14672</v>
+        <v>14606</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>14985</v>
+        <v>14174</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>14606</v>
+        <v>13876</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>14174</v>
+        <v>13466</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>13876</v>
+        <v>13541</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>13466</v>
+        <v>14113</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>13541</v>
+        <v>13458</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>14113</v>
+        <v>13496</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>13458</v>
+        <v>13733</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>13496</v>
+        <v>13301</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>13733</v>
+        <v>12916</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>13301</v>
+        <v>12875</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>12916</v>
+        <v>12972</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>12875</v>
+        <v>13051</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>12972</v>
+        <v>12824</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>13051</v>
+        <v>12671</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>12824</v>
+        <v>14493</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>12671</v>
+        <v>17100</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>14493</v>
+        <v>14724</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>17100</v>
+        <v>15032</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>14724</v>
+        <v>14280</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>15032</v>
+        <v>14215</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>14280</v>
+        <v>14230</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>14215</v>
+        <v>14214</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>14230</v>
+        <v>14366</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>14214</v>
+        <v>14561</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>14366</v>
+        <v>15745</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>14561</v>
+        <v>15030</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>15745</v>
+        <v>14899</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>15030</v>
+        <v>14656</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>14899</v>
+        <v>14852</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>14656</v>
+        <v>14869</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>14852</v>
+        <v>15352</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>14869</v>
+        <v>15879</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>15352</v>
+        <v>15135</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>15879</v>
+        <v>15168</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>15135</v>
+        <v>15152</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>15168</v>
+        <v>15300</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>15152</v>
+        <v>15393</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>15300</v>
+        <v>14888</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>15393</v>
+        <v>16707</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>14888</v>
+        <v>16757</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>16707</v>
+        <v>16182</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>16757</v>
+        <v>16279</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>16182</v>
+        <v>16412</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>16279</v>
+        <v>16934</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>16412</v>
+        <v>17055</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>16934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>17055</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/list_6_r.xlsx
+++ b/list_6_r.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,7 +1240,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>457234</v>
       </c>
     </row>
     <row r="101">
@@ -1248,6 +1248,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>441117</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1262,7 +1270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2071,7 +2079,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>85150</v>
       </c>
     </row>
     <row r="101">
@@ -2079,6 +2087,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>77034</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2093,7 +2109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2902,7 +2918,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>15426</v>
       </c>
     </row>
     <row r="101">
@@ -2910,6 +2926,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>14644</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>

--- a/list_6_r.xlsx
+++ b/list_6_r.xlsx
@@ -1256,7 +1256,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>446557</v>
       </c>
     </row>
   </sheetData>
@@ -2095,7 +2095,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>77165</v>
       </c>
     </row>
   </sheetData>
@@ -2934,7 +2934,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>14264</v>
       </c>
     </row>
   </sheetData>
